--- a/Results/sfcc/sfcc_SimpleMultiScaleCNN_PCC.xlsx
+++ b/Results/sfcc/sfcc_SimpleMultiScaleCNN_PCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\functionalconnectivity_sfcc\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\functionalconnectivity_sfcc\Results\sfcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71E8C6D-A88F-4AC9-B5EF-F3CD8FB7F3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75D03CC-2C38-4599-B76A-F7A881046D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
